--- a/database/industries/urea/khorasan/product/yearly.xlsx
+++ b/database/industries/urea/khorasan/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\urea\khorasan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4C4103-370A-404C-8E9F-331255959136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3453A566-8E72-4778-9D20-1FEEBC22035C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="35">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>اوره</t>
   </si>
   <si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -575,12 +578,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -590,7 +593,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,7 +605,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -614,7 +617,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -624,7 +627,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -636,7 +639,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -648,7 +651,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -658,7 +661,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -680,7 +683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -690,7 +693,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -699,22 +702,22 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>607561</v>
+        <v>621206</v>
       </c>
       <c r="F10" s="9">
-        <v>621206</v>
+        <v>575492</v>
       </c>
       <c r="G10" s="9">
-        <v>575492</v>
+        <v>503306</v>
       </c>
       <c r="H10" s="9">
-        <v>503306</v>
+        <v>568740</v>
       </c>
       <c r="I10" s="9">
-        <v>568740</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>515053</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -723,22 +726,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>353975</v>
+        <v>363069</v>
       </c>
       <c r="F11" s="11">
-        <v>363069</v>
+        <v>323112</v>
       </c>
       <c r="G11" s="11">
-        <v>323112</v>
+        <v>282588</v>
       </c>
       <c r="H11" s="11">
-        <v>282588</v>
+        <v>332645</v>
       </c>
       <c r="I11" s="11">
-        <v>332645</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>306455</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -755,14 +758,14 @@
       <c r="G12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>14</v>
+      <c r="H12" s="9">
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -771,22 +774,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>21483</v>
+        <v>21167</v>
       </c>
       <c r="F13" s="11">
-        <v>21167</v>
+        <v>19633</v>
       </c>
       <c r="G13" s="11">
-        <v>19633</v>
+        <v>17500</v>
       </c>
       <c r="H13" s="11">
-        <v>17500</v>
+        <v>19702</v>
       </c>
       <c r="I13" s="11">
-        <v>19702</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15569</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -801,14 +804,14 @@
       <c r="G14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>14</v>
+      <c r="H14" s="9">
+        <v>0</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -832,7 +835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -849,14 +852,14 @@
       <c r="G16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>14</v>
+      <c r="H16" s="9">
+        <v>0</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -873,14 +876,14 @@
       <c r="G17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>14</v>
+      <c r="H17" s="11">
+        <v>291184</v>
       </c>
       <c r="I17" s="11">
-        <v>291184</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>267811</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
@@ -897,14 +900,14 @@
       <c r="G18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>14</v>
+      <c r="H18" s="9">
+        <v>63157</v>
       </c>
       <c r="I18" s="9">
-        <v>63157</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>50031</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -921,14 +924,14 @@
       <c r="G19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>14</v>
+      <c r="H19" s="11">
+        <v>14729</v>
       </c>
       <c r="I19" s="11">
-        <v>14729</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11676</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>22</v>
       </c>
@@ -945,36 +948,36 @@
       <c r="G20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>14</v>
+      <c r="H20" s="9">
+        <v>0</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>983019</v>
+        <v>1005442</v>
       </c>
       <c r="F21" s="13">
-        <v>1005442</v>
+        <v>918237</v>
       </c>
       <c r="G21" s="13">
-        <v>918237</v>
+        <v>803394</v>
       </c>
       <c r="H21" s="13">
-        <v>803394</v>
+        <v>1290157</v>
       </c>
       <c r="I21" s="13">
-        <v>1290157</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1166595</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -984,7 +987,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -994,7 +997,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1004,7 +1007,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1036,7 +1039,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
@@ -1045,22 +1048,22 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
-        <v>523013</v>
+        <v>532399</v>
       </c>
       <c r="F27" s="9">
-        <v>532399</v>
+        <v>525943</v>
       </c>
       <c r="G27" s="9">
-        <v>525943</v>
+        <v>463678</v>
       </c>
       <c r="H27" s="9">
-        <v>463678</v>
+        <v>256923</v>
       </c>
       <c r="I27" s="9">
-        <v>256923</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>371867</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>12</v>
       </c>
@@ -1069,22 +1072,22 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>27252</v>
+        <v>24568</v>
       </c>
       <c r="F28" s="11">
-        <v>24568</v>
+        <v>24648</v>
       </c>
       <c r="G28" s="11">
-        <v>24648</v>
+        <v>11662</v>
       </c>
       <c r="H28" s="11">
-        <v>11662</v>
+        <v>25927</v>
       </c>
       <c r="I28" s="11">
-        <v>25927</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28633</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>13</v>
       </c>
@@ -1101,14 +1104,14 @@
       <c r="G29" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="9" t="s">
-        <v>14</v>
+      <c r="H29" s="9">
+        <v>13118</v>
       </c>
       <c r="I29" s="9">
-        <v>13118</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15513</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>25</v>
       </c>
@@ -1116,8 +1119,8 @@
         <v>26</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>14</v>
+      <c r="E30" s="11">
+        <v>0</v>
       </c>
       <c r="F30" s="11">
         <v>0</v>
@@ -1125,14 +1128,14 @@
       <c r="G30" s="11">
         <v>0</v>
       </c>
-      <c r="H30" s="11">
-        <v>0</v>
+      <c r="H30" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
@@ -1141,29 +1144,29 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>20644</v>
+        <v>17707</v>
       </c>
       <c r="F31" s="9">
-        <v>17707</v>
+        <v>23574</v>
       </c>
       <c r="G31" s="9">
-        <v>23574</v>
+        <v>17535</v>
       </c>
       <c r="H31" s="9">
-        <v>17535</v>
+        <v>6571</v>
       </c>
       <c r="I31" s="9">
-        <v>6571</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>14</v>
+      <c r="E32" s="11">
+        <v>0</v>
       </c>
       <c r="F32" s="11">
         <v>0</v>
@@ -1178,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>18</v>
       </c>
@@ -1195,14 +1198,14 @@
       <c r="G33" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>14</v>
+      <c r="H33" s="9">
+        <v>12693</v>
       </c>
       <c r="I33" s="9">
-        <v>12693</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12940</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>19</v>
       </c>
@@ -1219,14 +1222,14 @@
       <c r="G34" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="11" t="s">
-        <v>14</v>
+      <c r="H34" s="11">
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>20</v>
       </c>
@@ -1243,14 +1246,14 @@
       <c r="G35" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>14</v>
+      <c r="H35" s="9">
+        <v>0</v>
       </c>
       <c r="I35" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>21</v>
       </c>
@@ -1267,14 +1270,14 @@
       <c r="G36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>14</v>
+      <c r="H36" s="11">
+        <v>0</v>
       </c>
       <c r="I36" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>22</v>
       </c>
@@ -1291,36 +1294,36 @@
       <c r="G37" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>14</v>
+      <c r="H37" s="9">
+        <v>186775</v>
       </c>
       <c r="I37" s="9">
-        <v>186775</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>123211</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13">
-        <v>570909</v>
+        <v>574674</v>
       </c>
       <c r="F38" s="13">
-        <v>574674</v>
+        <v>574165</v>
       </c>
       <c r="G38" s="13">
-        <v>574165</v>
+        <v>492875</v>
       </c>
       <c r="H38" s="13">
-        <v>492875</v>
+        <v>502007</v>
       </c>
       <c r="I38" s="13">
-        <v>502007</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>555358</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1330,7 +1333,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1340,7 +1343,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1350,7 +1353,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>27</v>
       </c>
@@ -1372,7 +1375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1382,7 +1385,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>10</v>
       </c>
@@ -1391,22 +1394,22 @@
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
-        <v>4299201</v>
+        <v>7570968</v>
       </c>
       <c r="F44" s="9">
-        <v>7570968</v>
+        <v>11495477</v>
       </c>
       <c r="G44" s="9">
-        <v>11495477</v>
+        <v>18065822</v>
       </c>
       <c r="H44" s="9">
-        <v>18065822</v>
+        <v>25239930</v>
       </c>
       <c r="I44" s="9">
-        <v>25239930</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52042032</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>12</v>
       </c>
@@ -1415,22 +1418,22 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>209303</v>
+        <v>325159</v>
       </c>
       <c r="F45" s="11">
-        <v>325159</v>
+        <v>337100</v>
       </c>
       <c r="G45" s="11">
-        <v>337100</v>
+        <v>330401</v>
       </c>
       <c r="H45" s="11">
-        <v>330401</v>
+        <v>2444619</v>
       </c>
       <c r="I45" s="11">
-        <v>2444619</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5426888</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>13</v>
       </c>
@@ -1447,14 +1450,14 @@
       <c r="G46" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="9" t="s">
-        <v>14</v>
+      <c r="H46" s="9">
+        <v>1244920</v>
       </c>
       <c r="I46" s="9">
-        <v>1244920</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1990989</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1465,8 @@
         <v>28</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>14</v>
+      <c r="E47" s="11">
+        <v>0</v>
       </c>
       <c r="F47" s="11">
         <v>0</v>
@@ -1471,14 +1474,14 @@
       <c r="G47" s="11">
         <v>0</v>
       </c>
-      <c r="H47" s="11">
-        <v>0</v>
+      <c r="H47" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>15</v>
       </c>
@@ -1487,22 +1490,22 @@
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9">
-        <v>1084736</v>
+        <v>1644393</v>
       </c>
       <c r="F48" s="9">
-        <v>1644393</v>
+        <v>2321083</v>
       </c>
       <c r="G48" s="9">
-        <v>2321083</v>
+        <v>3768225</v>
       </c>
       <c r="H48" s="9">
-        <v>3768225</v>
+        <v>4094070</v>
       </c>
       <c r="I48" s="9">
-        <v>4094070</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1607585</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -1510,23 +1513,23 @@
         <v>28</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>14</v>
+      <c r="E49" s="11">
+        <v>-31670</v>
       </c>
       <c r="F49" s="11">
-        <v>-31670</v>
+        <v>-29204</v>
       </c>
       <c r="G49" s="11">
-        <v>-29204</v>
+        <v>-7130</v>
       </c>
       <c r="H49" s="11">
-        <v>-7130</v>
+        <v>0</v>
       </c>
       <c r="I49" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>18</v>
       </c>
@@ -1543,14 +1546,14 @@
       <c r="G50" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H50" s="9" t="s">
-        <v>14</v>
+      <c r="H50" s="9">
+        <v>7362151</v>
       </c>
       <c r="I50" s="9">
-        <v>7362151</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6191246</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>19</v>
       </c>
@@ -1567,14 +1570,14 @@
       <c r="G51" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>14</v>
+      <c r="H51" s="11">
+        <v>0</v>
       </c>
       <c r="I51" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>20</v>
       </c>
@@ -1591,14 +1594,14 @@
       <c r="G52" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="9" t="s">
-        <v>14</v>
+      <c r="H52" s="9">
+        <v>0</v>
       </c>
       <c r="I52" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>21</v>
       </c>
@@ -1615,14 +1618,14 @@
       <c r="G53" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="11" t="s">
-        <v>14</v>
+      <c r="H53" s="11">
+        <v>0</v>
       </c>
       <c r="I53" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>22</v>
       </c>
@@ -1639,36 +1642,36 @@
       <c r="G54" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>14</v>
+      <c r="H54" s="9">
+        <v>12348052</v>
       </c>
       <c r="I54" s="9">
-        <v>12348052</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12103440</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <v>5593240</v>
+        <v>9508850</v>
       </c>
       <c r="F55" s="13">
-        <v>9508850</v>
+        <v>14124456</v>
       </c>
       <c r="G55" s="13">
-        <v>14124456</v>
+        <v>22157318</v>
       </c>
       <c r="H55" s="13">
-        <v>22157318</v>
+        <v>52733742</v>
       </c>
       <c r="I55" s="13">
-        <v>52733742</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>79362180</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1678,7 +1681,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1688,7 +1691,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1698,7 +1701,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>29</v>
       </c>
@@ -1720,7 +1723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1730,7 +1733,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>10</v>
       </c>
@@ -1739,22 +1742,22 @@
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
-        <v>8220065</v>
+        <v>14220478</v>
       </c>
       <c r="F61" s="9">
-        <v>14220478</v>
+        <v>21856888</v>
       </c>
       <c r="G61" s="9">
-        <v>21856888</v>
+        <v>38961999</v>
       </c>
       <c r="H61" s="9">
-        <v>38961999</v>
+        <v>98239278</v>
       </c>
       <c r="I61" s="9">
-        <v>98239278</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>139947971</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>12</v>
       </c>
@@ -1763,22 +1766,22 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>7680280</v>
+        <v>13235062</v>
       </c>
       <c r="F62" s="11">
-        <v>13235062</v>
+        <v>13676566</v>
       </c>
       <c r="G62" s="11">
-        <v>13676566</v>
+        <v>28331418</v>
       </c>
       <c r="H62" s="11">
-        <v>28331418</v>
+        <v>94288541</v>
       </c>
       <c r="I62" s="11">
-        <v>94288541</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>189532637</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>13</v>
       </c>
@@ -1795,14 +1798,14 @@
       <c r="G63" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H63" s="9" t="s">
-        <v>14</v>
+      <c r="H63" s="9">
+        <v>94901662</v>
       </c>
       <c r="I63" s="9">
-        <v>94901662</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>128343260</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>25</v>
       </c>
@@ -1810,8 +1813,8 @@
         <v>31</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>14</v>
+      <c r="E64" s="11">
+        <v>0</v>
       </c>
       <c r="F64" s="11">
         <v>0</v>
@@ -1819,14 +1822,14 @@
       <c r="G64" s="11">
         <v>0</v>
       </c>
-      <c r="H64" s="11">
-        <v>0</v>
+      <c r="H64" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>15</v>
       </c>
@@ -1835,31 +1838,31 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9">
-        <v>52544856</v>
+        <v>92866832</v>
       </c>
       <c r="F65" s="9">
-        <v>92866832</v>
+        <v>98459447</v>
       </c>
       <c r="G65" s="9">
-        <v>98459447</v>
+        <v>214897348</v>
       </c>
       <c r="H65" s="9">
-        <v>214897348</v>
+        <v>623051286</v>
       </c>
       <c r="I65" s="9">
-        <v>623051286</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>503314026</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>14</v>
+      <c r="E66" s="11">
+        <v>0</v>
       </c>
       <c r="F66" s="11">
         <v>0</v>
@@ -1874,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>18</v>
       </c>
@@ -1891,14 +1894,14 @@
       <c r="G67" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="9" t="s">
-        <v>14</v>
+      <c r="H67" s="9">
+        <v>580016623</v>
       </c>
       <c r="I67" s="9">
-        <v>580016623</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>478457960</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>19</v>
       </c>
@@ -1915,14 +1918,14 @@
       <c r="G68" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H68" s="11" t="s">
-        <v>14</v>
+      <c r="H68" s="11">
+        <v>0</v>
       </c>
       <c r="I68" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>20</v>
       </c>
@@ -1939,14 +1942,14 @@
       <c r="G69" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>14</v>
+      <c r="H69" s="9">
+        <v>0</v>
       </c>
       <c r="I69" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>21</v>
       </c>
@@ -1963,14 +1966,14 @@
       <c r="G70" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H70" s="11" t="s">
-        <v>14</v>
+      <c r="H70" s="11">
+        <v>0</v>
       </c>
       <c r="I70" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>22</v>
       </c>
@@ -1987,14 +1990,14 @@
       <c r="G71" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="9" t="s">
-        <v>14</v>
+      <c r="H71" s="9">
+        <v>66111910</v>
       </c>
       <c r="I71" s="9">
-        <v>66111910</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>98233437</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2004,7 +2007,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2014,7 +2017,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2024,9 +2027,9 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -2046,7 +2049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2056,7 +2059,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>10</v>
       </c>
@@ -2064,23 +2067,23 @@
         <v>28</v>
       </c>
       <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
-        <v>14</v>
+      <c r="E77" s="9">
+        <v>-3014495</v>
       </c>
       <c r="F77" s="9">
-        <v>-3014495</v>
+        <v>-4062344</v>
       </c>
       <c r="G77" s="9">
-        <v>-4062344</v>
+        <v>-6161289</v>
       </c>
       <c r="H77" s="9">
-        <v>-6161289</v>
+        <v>-8584578</v>
       </c>
       <c r="I77" s="9">
-        <v>-8584578</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-14808098</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>12</v>
       </c>
@@ -2088,23 +2091,23 @@
         <v>28</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>14</v>
+      <c r="E78" s="11">
+        <v>-189342</v>
       </c>
       <c r="F78" s="11">
-        <v>-189342</v>
+        <v>-252168</v>
       </c>
       <c r="G78" s="11">
-        <v>-252168</v>
+        <v>-210116</v>
       </c>
       <c r="H78" s="11">
-        <v>-210116</v>
+        <v>-1248368</v>
       </c>
       <c r="I78" s="11">
-        <v>-1248368</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1566085</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>13</v>
       </c>
@@ -2121,14 +2124,14 @@
       <c r="G79" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="9" t="s">
-        <v>14</v>
+      <c r="H79" s="9">
+        <v>-389473</v>
       </c>
       <c r="I79" s="9">
-        <v>-389473</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-562194</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>25</v>
       </c>
@@ -2136,8 +2139,8 @@
         <v>28</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>14</v>
+      <c r="E80" s="11">
+        <v>0</v>
       </c>
       <c r="F80" s="11">
         <v>0</v>
@@ -2145,14 +2148,14 @@
       <c r="G80" s="11">
         <v>0</v>
       </c>
-      <c r="H80" s="11">
-        <v>0</v>
+      <c r="H80" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>15</v>
       </c>
@@ -2160,23 +2163,23 @@
         <v>28</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>14</v>
+      <c r="E81" s="9">
+        <v>-488698</v>
       </c>
       <c r="F81" s="9">
-        <v>-488698</v>
+        <v>-841018</v>
       </c>
       <c r="G81" s="9">
-        <v>-841018</v>
+        <v>-998707</v>
       </c>
       <c r="H81" s="9">
-        <v>-998707</v>
+        <v>-1070725</v>
       </c>
       <c r="I81" s="9">
-        <v>-1070725</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-670801</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -2184,8 +2187,8 @@
         <v>28</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>14</v>
+      <c r="E82" s="11">
+        <v>0</v>
       </c>
       <c r="F82" s="11">
         <v>0</v>
@@ -2200,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>18</v>
       </c>
@@ -2217,14 +2220,14 @@
       <c r="G83" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H83" s="9" t="s">
-        <v>14</v>
+      <c r="H83" s="9">
+        <v>-2028431</v>
       </c>
       <c r="I83" s="9">
-        <v>-2028431</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2687094</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>19</v>
       </c>
@@ -2241,14 +2244,14 @@
       <c r="G84" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>14</v>
+      <c r="H84" s="11">
+        <v>0</v>
       </c>
       <c r="I84" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>20</v>
       </c>
@@ -2265,14 +2268,14 @@
       <c r="G85" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="9" t="s">
-        <v>14</v>
+      <c r="H85" s="9">
+        <v>0</v>
       </c>
       <c r="I85" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>21</v>
       </c>
@@ -2289,14 +2292,14 @@
       <c r="G86" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="11" t="s">
-        <v>14</v>
+      <c r="H86" s="11">
+        <v>0</v>
       </c>
       <c r="I86" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>22</v>
       </c>
@@ -2313,36 +2316,36 @@
       <c r="G87" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="9" t="s">
-        <v>14</v>
+      <c r="H87" s="9">
+        <v>-5545350</v>
       </c>
       <c r="I87" s="9">
-        <v>-5545350</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4461803</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>0</v>
+        <v>-3692535</v>
       </c>
       <c r="F88" s="13">
-        <v>-3692535</v>
+        <v>-5155530</v>
       </c>
       <c r="G88" s="13">
-        <v>-5155530</v>
+        <v>-7370112</v>
       </c>
       <c r="H88" s="13">
-        <v>-7370112</v>
+        <v>-18866925</v>
       </c>
       <c r="I88" s="13">
-        <v>-18866925</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-24756075</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2352,7 +2355,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2362,7 +2365,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2372,9 +2375,9 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2394,7 +2397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2404,7 +2407,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>10</v>
       </c>
@@ -2412,23 +2415,23 @@
         <v>28</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>14</v>
+      <c r="E94" s="9">
+        <v>4556473</v>
       </c>
       <c r="F94" s="9">
-        <v>4556473</v>
+        <v>7433133</v>
       </c>
       <c r="G94" s="9">
-        <v>7433133</v>
+        <v>11904533</v>
       </c>
       <c r="H94" s="9">
-        <v>11904533</v>
+        <v>16655352</v>
       </c>
       <c r="I94" s="9">
-        <v>16655352</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37233934</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>12</v>
       </c>
@@ -2436,23 +2439,23 @@
         <v>28</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>14</v>
+      <c r="E95" s="11">
+        <v>135817</v>
       </c>
       <c r="F95" s="11">
-        <v>135817</v>
+        <v>84932</v>
       </c>
       <c r="G95" s="11">
-        <v>84932</v>
+        <v>120285</v>
       </c>
       <c r="H95" s="11">
-        <v>120285</v>
+        <v>1196251</v>
       </c>
       <c r="I95" s="11">
-        <v>1196251</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3860803</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>13</v>
       </c>
@@ -2469,14 +2472,14 @@
       <c r="G96" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H96" s="9" t="s">
-        <v>14</v>
+      <c r="H96" s="9">
+        <v>855447</v>
       </c>
       <c r="I96" s="9">
-        <v>855447</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1428795</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>25</v>
       </c>
@@ -2487,20 +2490,20 @@
       <c r="E97" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>14</v>
+      <c r="F97" s="11">
+        <v>0</v>
       </c>
       <c r="G97" s="11">
         <v>0</v>
       </c>
-      <c r="H97" s="11">
-        <v>0</v>
+      <c r="H97" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>15</v>
       </c>
@@ -2508,23 +2511,23 @@
         <v>28</v>
       </c>
       <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
-        <v>14</v>
+      <c r="E98" s="9">
+        <v>1155695</v>
       </c>
       <c r="F98" s="9">
-        <v>1155695</v>
+        <v>1480065</v>
       </c>
       <c r="G98" s="9">
-        <v>1480065</v>
+        <v>2769518</v>
       </c>
       <c r="H98" s="9">
-        <v>2769518</v>
+        <v>3023345</v>
       </c>
       <c r="I98" s="9">
-        <v>3023345</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>936784</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>16</v>
       </c>
@@ -2532,23 +2535,23 @@
         <v>28</v>
       </c>
       <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
-        <v>14</v>
+      <c r="E99" s="11">
+        <v>-31670</v>
       </c>
       <c r="F99" s="11">
-        <v>-31670</v>
+        <v>-29204</v>
       </c>
       <c r="G99" s="11">
-        <v>-29204</v>
+        <v>-7130</v>
       </c>
       <c r="H99" s="11">
-        <v>-7130</v>
+        <v>0</v>
       </c>
       <c r="I99" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>18</v>
       </c>
@@ -2565,14 +2568,14 @@
       <c r="G100" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="9" t="s">
-        <v>14</v>
+      <c r="H100" s="9">
+        <v>5333720</v>
       </c>
       <c r="I100" s="9">
-        <v>5333720</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3504152</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>19</v>
       </c>
@@ -2589,14 +2592,14 @@
       <c r="G101" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H101" s="11" t="s">
-        <v>14</v>
+      <c r="H101" s="11">
+        <v>0</v>
       </c>
       <c r="I101" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>20</v>
       </c>
@@ -2613,14 +2616,14 @@
       <c r="G102" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H102" s="9" t="s">
-        <v>14</v>
+      <c r="H102" s="9">
+        <v>0</v>
       </c>
       <c r="I102" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>21</v>
       </c>
@@ -2637,14 +2640,14 @@
       <c r="G103" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H103" s="11" t="s">
-        <v>14</v>
+      <c r="H103" s="11">
+        <v>0</v>
       </c>
       <c r="I103" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>22</v>
       </c>
@@ -2661,33 +2664,33 @@
       <c r="G104" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H104" s="9" t="s">
-        <v>14</v>
+      <c r="H104" s="9">
+        <v>6802702</v>
       </c>
       <c r="I104" s="9">
-        <v>6802702</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7641637</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13">
-        <v>0</v>
+        <v>5816315</v>
       </c>
       <c r="F105" s="13">
-        <v>5816315</v>
+        <v>8968926</v>
       </c>
       <c r="G105" s="13">
-        <v>8968926</v>
+        <v>14787206</v>
       </c>
       <c r="H105" s="13">
-        <v>14787206</v>
+        <v>33866817</v>
       </c>
       <c r="I105" s="13">
-        <v>33866817</v>
+        <v>54606105</v>
       </c>
     </row>
   </sheetData>
